--- a/biology/Neurosciences/Neurulation/Neurulation.xlsx
+++ b/biology/Neurosciences/Neurulation/Neurulation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La neurulation est une étape du développement embryonnaire des métazoaires triploblastiques au cours de laquelle se met en place le système nerveux central. Elle succède à la gastrulation.
 La neurulation se déroule en 2 étapes : la neurulation primaire et la neurulation secondaire.
@@ -520,7 +532,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1838 -1839 : le botaniste allemand Matthias Schleiden et le physiologiste Theodor Schwann reconnaissent que tous les êtres vivants sont constitués de cellules, unité de base de la vie formée uniquement à partir de division d’autres cellules. 
 1924 : Hans Spemann et Hilde Mangold, embryologistes allemands, mettent en évidence l’induction chordo-mésodermique[Quoi ?]. 
@@ -553,15 +567,87 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La neurulation correspond à la formation de ce qui sera plus tard le système nerveux chez les Métazoaires triploblastiques (ou triblastiques). Elle constitue l'étape qui précède l'organogenèse et qui suit ce que l'on appelle la gastrulation, au cours de l'embryogenèse.
 Elle se déroule généralement sur la face dorsale de l'embryon dans le neuroectoderme, formé au cours de la gastrulation. La neurulation comporte plusieurs changements embryo-morphologiques par modification du neuroectoderme, notamment par la formation d'une plaque neurale et de bourrelets neuraux qui formeront la gouttière neurale. Par la suite, la fusion des replis neuraux (anciens bourrelets) formera le tube neural.
-Œufs télolécithes
-Les œufs télolécithes (ou megalécithes) sont très gros, chargés en vitellus tassé vers le pôle végétatif et dont la quantité est importante par rapport à celle du cytoplasme formatif, de sorte que celui-ci, renfermant le noyau, se limite à un disque situé au pôle animal. Ils sont caractéristiques des oiseaux, des reptiles, et des céphalopodes. Leur neurulation est très proche de celle des œufs hétérolécithes, mais présente tout de même quelques particularités : leur rein vient de la région caudale du mésenchyme intermédiaire qui ne s’est pas divisé et a ainsi créé un blastème.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Neurulation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neurulation</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Définition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Œufs télolécithes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs télolécithes (ou megalécithes) sont très gros, chargés en vitellus tassé vers le pôle végétatif et dont la quantité est importante par rapport à celle du cytoplasme formatif, de sorte que celui-ci, renfermant le noyau, se limite à un disque situé au pôle animal. Ils sont caractéristiques des oiseaux, des reptiles, et des céphalopodes. Leur neurulation est très proche de celle des œufs hétérolécithes, mais présente tout de même quelques particularités : leur rein vient de la région caudale du mésenchyme intermédiaire qui ne s’est pas divisé et a ainsi créé un blastème.
 Ils ne possèdent pas d'archentéron, mais une gouttière renversée est formée par soulèvement de la lame entoblastique intra-embryonnaire. Celle-ci n’est pas entièrement refermée, mais après apparition des plis neuraux, elle se refermera progressivement vers l’avant pour s’achever au niveau caudal.
-Œufs hétérolécithes
-Les œufs hétérolécithes sont assez gros, pauvre en vitellus avec un net gradient vitellin hétérogène (la concentration en vitellus est plus important au pôle végétatif) et anisotrope (tous les axes de l’œuf ne sont pas identiques). Ils sont caractéristiques des amphibiens, des annélides, et des lamellibranches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Neurulation</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neurulation</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Définition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Œufs hétérolécithes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs hétérolécithes sont assez gros, pauvre en vitellus avec un net gradient vitellin hétérogène (la concentration en vitellus est plus important au pôle végétatif) et anisotrope (tous les axes de l’œuf ne sont pas identiques). Ils sont caractéristiques des amphibiens, des annélides, et des lamellibranches.
 La neurulation des œufs hétérolécithes comporte 4 phases : 
 Epaississement de l'ectoderme dans la région médiane et formation de la plaque neurale.
 Pendant que la fente blastoporale est en train de se former, l’ectoderme qui se situe sur la partie médiane de l’embryon va subir un aplatissement ainsi qu’un épaississement. Celui-ci se propagera latéralement et progressera sur toute la longueur de la phase dorsale de l’embryon. Grâce à ce mécanisme la plaque neurale sera mise en place.
@@ -580,31 +666,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Neurulation</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Neurulation</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>L'induction de la neurulation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Expérience de Spemann et Mangold
 Spemann et Mangold, qui étaient deux embryologistes allemands, ont révélé en 1924 par leur expérience le rôle inducteur des cellules présentes au-dessus de la lèvre dorsale du blastopore de Xénope, qui est équivalent au nœud de Hensen chez les vertébrés. Ces cellules sont appelées aujourd’hui « Centre Organisateur de Spemann ». Ils ont prélevé des cellules d'une jeune gastrula puis les ont greffées sur d'une autre gastrula d'une espèce proche mais de pigmentation différente, au même stade de développement, sur sa partie ventrale. Le greffon s’invagine et s’incorpore dans le zygote, puis, lors de la neurulation, une plaque neurale secondaire en position ventrale apparaît en plus de la plaque neurale primaire apparue en position dorsale normalement au cours du développement, d'où le terme de « double neurulation ». Les deux plaques neurales vont alors évoluer indépendamment et constituer chacun un tube neural au terme d'un mécanisme complexe expliqué ci-dessous.
